--- a/Threshold/Fe/2His_1Asp/2.xlsx
+++ b/Threshold/Fe/2His_1Asp/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Fe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A58471-FFAC-4372-BA76-211756379BD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECCB5AC-C96D-4C81-BB8A-9D8320CC65DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C3" s="2">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>

--- a/Threshold/Fe/2His_1Asp/2.xlsx
+++ b/Threshold/Fe/2His_1Asp/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECCB5AC-C96D-4C81-BB8A-9D8320CC65DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C31638-3A6C-4CAE-8C55-456323F30F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>

--- a/Threshold/Fe/2His_1Asp/2.xlsx
+++ b/Threshold/Fe/2His_1Asp/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250414_Final\Fe\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C31638-3A6C-4CAE-8C55-456323F30F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0165B8C4-9438-4319-9447-C3B95103B7F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
         <v>9</v>
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C3" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
